--- a/GUI/Images/Classification.xlsx
+++ b/GUI/Images/Classification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbake\Desktop\Programming\GitHub\Bat_Taxonomic_Lookup\GUI\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbake\Desktop\Programming\GitHub\Batpedia\GUI\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DE22BB-159C-464E-9347-CCCF90EC6FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C622A-7F16-4D06-9F1A-7F619946CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>Kerivoula picta</t>
   </si>
   <si>
-    <t>Glauconycteris Dobson</t>
-  </si>
-  <si>
     <t>Eonycteris spelaea</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Rhinolophus fumigatus</t>
+  </si>
+  <si>
+    <t>Glauconycteris superba</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="B3:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -674,7 +674,7 @@
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
@@ -705,53 +705,53 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
